--- a/medicine/Enfance/Alice_et_les_Magiciens/Alice_et_les_Magiciens.xlsx
+++ b/medicine/Enfance/Alice_et_les_Magiciens/Alice_et_les_Magiciens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Alice et les Magiciens (titre original : The Triple Hoax, littéralement : La Triple Mystification) est le cinquante-septième[2] roman de la série Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. L'auteur de ce roman est Harriet Adams. 
+Alice et les Magiciens (titre original : The Triple Hoax, littéralement : La Triple Mystification) est le cinquante-septième roman de la série Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. L'auteur de ce roman est Harriet Adams. 
 Aux États-Unis, le roman a été publié pour la première fois en 1979 par Grosset &amp; Dunlap, New York. En France, il est paru pour la première fois en 1983 chez Hachette Jeunesse dans la collection « Masque Jeunesse » sous le no 8.
 </t>
         </is>
@@ -513,11 +525,13 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est basé sur l’édition cartonnée non abrégée parue en 1983 en langue française.
 Cécile Roy, la tante d'Alice, demande à sa nièce de venir la rejoindre à New York afin d'élucider une escroquerie dont a été victime une riche amie, extorquée de milliers de dollars par un agent de tourisme pour un voyage à l'étranger qu'elle avait prépayé. En compagnie de ses amies Bess et Marion, Alice s'envole pour New York. Le trio profite du séjour pour assister à une représentation de tours de magie donnée par la troupe « Les Farceurs » : avec une adresse hors du commun, les magiciens subtilisent les sacs à mains et porte-feuilles de nombreuses personnes dans le public puis, après un assez long moment, les restituent à leurs propriétaires. Alice est intriguée : pourquoi les magiciens n'ont-ils pas immédiatement rendu les objets aux spectateurs, comme c'est habituellement le cas ? 
-Bess est bientôt contactée par un inconnu qui souhaite lui vendre à un prix alléchant un séjour à vie à l'hôtel du Beau-rivage où elle a séjourné l'année précédente. Il se recommande de la mère de Bess, qui, dit-il, l'a informé que sa fille avait sur elle son livret bancaire et pouvait donc avancer l'agent sans délai[3]. Lorsque, à la demande d'Alice, Bess téléphone à sa mère pour obtenir une confirmation des informations, celle-ci nie avoir jamais parlé du livret bancaire. Alice et ses amies décident de retourner assister à une nouvelle séance de magie de la troupe et d'épier leurs moindres faits et gestes…
+Bess est bientôt contactée par un inconnu qui souhaite lui vendre à un prix alléchant un séjour à vie à l'hôtel du Beau-rivage où elle a séjourné l'année précédente. Il se recommande de la mère de Bess, qui, dit-il, l'a informé que sa fille avait sur elle son livret bancaire et pouvait donc avancer l'agent sans délai. Lorsque, à la demande d'Alice, Bess téléphone à sa mère pour obtenir une confirmation des informations, celle-ci nie avoir jamais parlé du livret bancaire. Alice et ses amies décident de retourner assister à une nouvelle séance de magie de la troupe et d'épier leurs moindres faits et gestes…
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Personnages principaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Personnages récurrents
 Alice Roy : dix-huit ans, blonde, fille de l'avocat James Roy, orpheline de mère.
@@ -590,10 +606,12 @@
           <t>Éditions françaises</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1983 : Éditions Hachette, collection Masque Jeunesse no 8, format de poche souple (français, version originale). Illustré par Philippe Daure. Texte français de Martine Millon. 20 chapitres. 187 pages.
-1987 : Éditions Hachette, collection Bibliothèque verte (série hachurée), format cartonné (français, version abrégée). Illustré par Philippe Daure. Texte français de Martine Millon. 20 chapitres. 187 pages[4].
+1987 : Éditions Hachette, collection Bibliothèque verte (série hachurée), format cartonné (français, version abrégée). Illustré par Philippe Daure. Texte français de Martine Millon. 20 chapitres. 187 pages.
 1988 : Éditions Hachette, collection Bibliothèque verte no 458, format de poche souple (français, originale). Illustré par Philippe Daure. Texte français de Martine Millon. 20 chapitres. 187 pages.
 2000 : Éditions Hachette, collection Bibliothèque verte no 458, (série à timbre) format mi-souple (français, originale). Illustré par Philippe Daure. Texte français de Martine Millon. 20 chapitres. 187 pages.</t>
         </is>
